--- a/Suvella/bin/Debug/net8.0-windows/menu.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/menu.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -472,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>52000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>55000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
